--- a/RE-Framework_RPA09_카카오맵유류비검증_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA09_카카오맵유류비검증_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sein\Documents\REFramework\RE-Framework_RPA09_카카오맵유류비검증_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B2675-8FB9-4196-A8C3-B47BDD76BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95714EA-F055-43B5-98E7-C01E3D8B3FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -616,22 +616,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>UiPath_Gmail</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>UiPath_Gmail Credential</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>{0} = yyyyMMdd</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>REFramework_네이버쇼핑_박채연.xlsx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>RPA 개발팀</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -697,18 +685,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>Data\Input</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>Data\ExPath</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{0}] {1} 처리 결과 : {2}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>유류비검증_result_temp.xlsx</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -721,8 +697,24 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>Data\Output</t>
+    <t>유류비검증_Dispatcher_temp.xlsx</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Data\ExPath\</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} {1} 처리 결과 : {2}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1371,8 +1363,8 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:B14"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1398,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1407,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -1416,7 +1408,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>90</v>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="26" t="s">
@@ -1480,10 +1472,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1491,10 +1483,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1503,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>16</v>
@@ -1546,7 +1538,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
@@ -1586,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -1595,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2077,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C45133-1F58-4797-8585-3B6A73A476FF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2105,17 +2097,6 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
